--- a/testsample.xlsx
+++ b/testsample.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,69 +29,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Testlink</t>
   </si>
   <si>
-    <t>https://tardaguila.uy/ganaderia</t>
-  </si>
-  <si>
-    <t>https://blasinayasociados.com/ganaderia/</t>
-  </si>
-  <si>
-    <t>https://www.beefcentral.com/news/</t>
-  </si>
-  <si>
-    <t>https://bichosdecampo.com/</t>
-  </si>
-  <si>
-    <t>https://www.gub.uy/ministerio-ganaderia-agricultura-pesca/comunicacion/noticias</t>
-  </si>
-  <si>
-    <t>https://www.gov.br/agricultura/pt-br/assuntos/noticias</t>
-  </si>
-  <si>
-    <t>https://www.noticiasagropecuarias.com/category/ganaderia/</t>
-  </si>
-  <si>
-    <t>https://beefpoint.com.br/cadeia-produtiva/giro-do-boi/</t>
-  </si>
-  <si>
-    <t>https://www.souagro.net/categoria/editoriais/pecuaria/</t>
-  </si>
-  <si>
-    <t>https://globorural.globo.com/pecuaria/</t>
-  </si>
-  <si>
-    <t>https://www.comprerural.com/categorias/noticias/</t>
-  </si>
-  <si>
-    <t>https://eurocarne.com/noticias</t>
-  </si>
-  <si>
-    <t>https://www.farmnews.com.br/category/mercado/</t>
-  </si>
-  <si>
-    <t>https://www.theagribiz.com/agribuzz/</t>
-  </si>
-  <si>
-    <t>https://www.agriland.ie/latest-farming-news/</t>
-  </si>
-  <si>
-    <t>https://www.thebeefsite.com/latest?page=1</t>
-  </si>
-  <si>
-    <t>https://www.mla.com.au/news-and-events/industry-news/</t>
-  </si>
-  <si>
-    <t>https://www.canadiancattlemen.ca/</t>
-  </si>
-  <si>
-    <t>https://www.elobservador.com.uy/elobservador/agro</t>
-  </si>
-  <si>
-    <t>https://www.batimes.com.ar/topics/agriculture</t>
+    <t>https://www.rnz.co.nz/news/national/547551/university-staff-member-hit-by-car-remains-in-hospital-other-pedestrians-discharged</t>
+  </si>
+  <si>
+    <t>https://www.zaobao.com/realtime/world/story20250326-6072442</t>
+  </si>
+  <si>
+    <t>https://www.soozhu.com/article/504760/</t>
+  </si>
+  <si>
+    <t>https://www.zaobao.com/realtime/china/story20250326-6071890</t>
+  </si>
+  <si>
+    <t>https://www.soozhu.com/article/504763/</t>
+  </si>
+  <si>
+    <t>https://www.soozhu.com/article/504759/</t>
+  </si>
+  <si>
+    <t>https://www.soozhu.com/article/504764/</t>
+  </si>
+  <si>
+    <t>https://www.agrodigital.com/2025/03/26/fiebre-aftosa-en-eslovaquia-mismo-serotipo-que-en-hungria/</t>
+  </si>
+  <si>
+    <t>https://www.agrodigital.com/2025/03/26/caso-influenza-aviar-h5n1-oveja-reino-unido/</t>
+  </si>
+  <si>
+    <t>https://www.agrodigital.com/2025/03/26/ayudas-acuicultura-castilla-leon-2025/</t>
+  </si>
+  <si>
+    <t>https://www.zaobao.com/realtime/world/story20250326-6072263</t>
+  </si>
+  <si>
+    <t>https://www.zaobao.com/realtime/china/story20250326-6072349</t>
+  </si>
+  <si>
+    <t>https://www.zaobao.com/realtime/china/story20250326-6072312</t>
+  </si>
+  <si>
+    <t>https://www.apk-inform.com/en/news/1547161</t>
+  </si>
+  <si>
+    <t>http://china-meat.cn/HYDT/70380.jhtml</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/politica/blog/natuza-nery/post/2025/03/26/bolsonaro-serio-vitimas-da-ditadura-criticas-entre-advogados-os-bastidores-do-julgamento-da-denuncia-do-golpe.ghtml</t>
   </si>
 </sst>
 </file>
@@ -121,7 +109,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -726,10 +714,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1046,7 +1032,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1105,7 +1091,7 @@
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1140,29 +1126,18 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A21" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A11" r:id="rId1" display="https://globorural.globo.com/pecuaria/"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
